--- a/example_1step.xlsx
+++ b/example_1step.xlsx
@@ -25,10 +25,10 @@
     <t xml:space="preserve">time</t>
   </si>
   <si>
-    <t xml:space="preserve">logN</t>
+    <t xml:space="preserve">temperature</t>
   </si>
   <si>
-    <t xml:space="preserve">temperature</t>
+    <t xml:space="preserve">logS</t>
   </si>
 </sst>
 </file>
@@ -43,6 +43,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -124,10 +125,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -148,10 +149,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -159,10 +160,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>76</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -170,10 +171,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>121</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -181,10 +182,98 @@
         <v>3</v>
       </c>
       <c r="B5" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>32</v>
+      <c r="B10" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>-10</v>
       </c>
     </row>
   </sheetData>
